--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmac\Google Drive\courses\data-structures\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1ABAC18-B6FC-45E8-8B4E-C0048C040508}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF002E9-B0FF-4FED-88AD-F156A4E93746}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
   <si>
     <t>Class number</t>
   </si>
@@ -59,9 +59,6 @@
     <t>hw2</t>
   </si>
   <si>
-    <t>hw3</t>
-  </si>
-  <si>
     <t>[review]</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
   </si>
   <si>
     <t>hw5</t>
-  </si>
-  <si>
-    <t>hw6</t>
   </si>
   <si>
     <t>hw7</t>
@@ -241,9 +235,6 @@
     <t>2.07-2.10</t>
   </si>
   <si>
-    <t>2.11-2.16</t>
-  </si>
-  <si>
     <t>ch 3</t>
   </si>
   <si>
@@ -281,6 +272,95 @@
   </si>
   <si>
     <t>ch 9</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hw3
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(required)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hw3
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(recommended)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hw6
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(recommended)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hw6
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(required)</t>
+    </r>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>optional:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2.11-2.16</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -290,7 +370,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,6 +429,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -385,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -465,6 +559,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -807,13 +904,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="60" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,7 +920,7 @@
     <col min="3" max="3" width="11" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" style="26" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="11"/>
+    <col min="6" max="6" width="12" style="11" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="13" customWidth="1"/>
     <col min="8" max="8" width="37.85546875" style="15" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="15"/>
@@ -831,7 +928,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -849,7 +946,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -863,34 +960,34 @@
         <v>44439</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="5">
         <f>C2+2</f>
         <v>44441</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -908,13 +1005,13 @@
       </c>
       <c r="D4" s="29"/>
       <c r="E4" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -929,11 +1026,11 @@
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -950,16 +1047,16 @@
         <v>44453</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -974,14 +1071,14 @@
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <f t="shared" ref="A8" si="3">A6+1</f>
         <v>4</v>
@@ -996,11 +1093,11 @@
       </c>
       <c r="D8" s="29"/>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="23" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1014,16 +1111,16 @@
         <v>44462</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1040,14 +1137,14 @@
         <v>44467</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1062,14 +1159,14 @@
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <f t="shared" ref="A12" si="5">A10+1</f>
         <v>6</v>
@@ -1082,12 +1179,12 @@
         <f t="shared" si="2"/>
         <v>44474</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="7" t="s">
+      <c r="D12" s="30" t="s">
         <v>9</v>
+      </c>
+      <c r="E12" s="30"/>
+      <c r="F12" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="G12" s="9"/>
     </row>
@@ -1101,14 +1198,14 @@
         <f t="shared" si="2"/>
         <v>44476</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="24"/>
+      <c r="D13" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="30"/>
       <c r="F13" s="7"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <f t="shared" ref="A14" si="6">A12+1</f>
         <v>7</v>
@@ -1122,14 +1219,16 @@
         <v>44481</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="G14" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1144,11 +1243,11 @@
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1165,10 +1264,10 @@
         <v>44488</v>
       </c>
       <c r="D16" s="29"/>
-      <c r="E16" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="24"/>
+      <c r="E16" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="30"/>
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1182,16 +1281,16 @@
         <v>44490</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>10</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1209,11 +1308,11 @@
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="F18" s="20"/>
       <c r="G18" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1228,11 +1327,11 @@
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1249,16 +1348,16 @@
         <v>44502</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1273,14 +1372,14 @@
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <f t="shared" ref="A22" si="10">A20+1</f>
         <v>11</v>
@@ -1293,12 +1392,12 @@
         <f t="shared" si="2"/>
         <v>44509</v>
       </c>
-      <c r="D22" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="7" t="s">
-        <v>13</v>
+      <c r="D22" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="30"/>
+      <c r="F22" s="20" t="s">
+        <v>80</v>
       </c>
       <c r="G22" s="9"/>
     </row>
@@ -1312,14 +1411,14 @@
         <f t="shared" si="2"/>
         <v>44511</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="24"/>
+      <c r="D23" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="30"/>
       <c r="F23" s="8"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <f t="shared" ref="A24" si="11">A22+1</f>
         <v>12</v>
@@ -1333,14 +1432,16 @@
         <v>44516</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="G24" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H24" s="14"/>
     </row>
@@ -1356,11 +1457,11 @@
       </c>
       <c r="D25" s="29"/>
       <c r="E25" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1377,16 +1478,16 @@
         <v>44523</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1400,10 +1501,10 @@
         <v>44525</v>
       </c>
       <c r="D27" s="29"/>
-      <c r="E27" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="24"/>
+      <c r="E27" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="30"/>
       <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1421,11 +1522,11 @@
       </c>
       <c r="D28" s="29"/>
       <c r="E28" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1439,16 +1540,16 @@
         <v>44532</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1466,11 +1567,11 @@
       </c>
       <c r="D30" s="29"/>
       <c r="E30" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1483,56 +1584,69 @@
         <f t="shared" si="2"/>
         <v>44539</v>
       </c>
-      <c r="D31" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="D31" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="30"/>
+      <c r="F31" s="7"/>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
       <c r="B32" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="5">
+        <v>44542</v>
+      </c>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+      <c r="B33" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="6:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
+      <c r="C33" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="30"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="D14:D16"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D17:D19"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="D14:D16"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="51" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="51" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmac\Google Drive\courses\data-structures\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF002E9-B0FF-4FED-88AD-F156A4E93746}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A11D84-3E2A-4530-B8C6-441BFC8F87A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -247,9 +247,6 @@
     <t>5.01-5.07</t>
   </si>
   <si>
-    <t>5.08-5.10</t>
-  </si>
-  <si>
     <t>5.11-5.16</t>
   </si>
   <si>
@@ -360,6 +357,22 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 2.11-2.16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5.08-5.09
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>optional: 5.10</t>
     </r>
   </si>
 </sst>
@@ -558,10 +571,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -910,7 +923,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,7 +992,7 @@
         <f>C2+2</f>
         <v>44441</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="30" t="s">
         <v>43</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -1003,7 +1016,7 @@
         <f>C2+7</f>
         <v>44446</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="7" t="s">
         <v>17</v>
       </c>
@@ -1024,7 +1037,7 @@
         <f>C3+7</f>
         <v>44448</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="7" t="s">
         <v>18</v>
       </c>
@@ -1046,7 +1059,7 @@
         <f t="shared" ref="C6:C31" si="2">C4+7</f>
         <v>44453</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="30" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1069,7 +1082,7 @@
         <f t="shared" si="2"/>
         <v>44455</v>
       </c>
-      <c r="D7" s="29"/>
+      <c r="D7" s="30"/>
       <c r="E7" s="7" t="s">
         <v>20</v>
       </c>
@@ -1091,13 +1104,13 @@
         <f t="shared" si="2"/>
         <v>44460</v>
       </c>
-      <c r="D8" s="29"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1136,7 +1149,7 @@
         <f t="shared" si="2"/>
         <v>44467</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="30" t="s">
         <v>46</v>
       </c>
       <c r="E10" s="7" t="s">
@@ -1157,7 +1170,7 @@
         <f t="shared" si="2"/>
         <v>44469</v>
       </c>
-      <c r="D11" s="29"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="7" t="s">
         <v>24</v>
       </c>
@@ -1179,12 +1192,12 @@
         <f t="shared" si="2"/>
         <v>44474</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="30"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G12" s="9"/>
     </row>
@@ -1198,10 +1211,10 @@
         <f t="shared" si="2"/>
         <v>44476</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="30"/>
+      <c r="E13" s="29"/>
       <c r="F13" s="7"/>
       <c r="G13" s="9"/>
     </row>
@@ -1218,20 +1231,20 @@
         <f t="shared" si="2"/>
         <v>44481</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="30" t="s">
         <v>47</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1241,13 +1254,13 @@
         <f t="shared" si="2"/>
         <v>44483</v>
       </c>
-      <c r="D15" s="29"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="9" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1263,11 +1276,11 @@
         <f t="shared" si="2"/>
         <v>44488</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30" t="s">
+      <c r="D16" s="30"/>
+      <c r="E16" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="30"/>
+      <c r="F16" s="29"/>
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1280,7 +1293,7 @@
         <f t="shared" si="2"/>
         <v>44490</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="30" t="s">
         <v>48</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -1290,7 +1303,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1306,13 +1319,13 @@
         <f t="shared" si="2"/>
         <v>44495</v>
       </c>
-      <c r="D18" s="29"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1325,7 +1338,7 @@
         <f t="shared" si="2"/>
         <v>44497</v>
       </c>
-      <c r="D19" s="29"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="7" t="s">
         <v>29</v>
       </c>
@@ -1347,7 +1360,7 @@
         <f t="shared" si="2"/>
         <v>44502</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="30" t="s">
         <v>49</v>
       </c>
       <c r="E20" s="7" t="s">
@@ -1357,7 +1370,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1370,13 +1383,13 @@
         <f t="shared" si="2"/>
         <v>44504</v>
       </c>
-      <c r="D21" s="29"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="39" x14ac:dyDescent="0.25">
@@ -1392,12 +1405,12 @@
         <f t="shared" si="2"/>
         <v>44509</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="30"/>
+      <c r="E22" s="29"/>
       <c r="F22" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G22" s="9"/>
     </row>
@@ -1411,10 +1424,10 @@
         <f t="shared" si="2"/>
         <v>44511</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="30"/>
+      <c r="E23" s="29"/>
       <c r="F23" s="8"/>
       <c r="G23" s="9"/>
     </row>
@@ -1431,17 +1444,17 @@
         <f t="shared" si="2"/>
         <v>44516</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="30" t="s">
         <v>50</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H24" s="14"/>
     </row>
@@ -1455,13 +1468,13 @@
         <f t="shared" si="2"/>
         <v>44518</v>
       </c>
-      <c r="D25" s="29"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1477,7 +1490,7 @@
         <f t="shared" si="2"/>
         <v>44523</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="30" t="s">
         <v>51</v>
       </c>
       <c r="E26" s="7" t="s">
@@ -1487,7 +1500,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1500,11 +1513,11 @@
         <f t="shared" si="2"/>
         <v>44525</v>
       </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30" t="s">
+      <c r="D27" s="30"/>
+      <c r="E27" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="30"/>
+      <c r="F27" s="29"/>
       <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1520,7 +1533,7 @@
         <f t="shared" si="2"/>
         <v>44530</v>
       </c>
-      <c r="D28" s="29"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="7" t="s">
         <v>35</v>
       </c>
@@ -1539,7 +1552,7 @@
         <f t="shared" si="2"/>
         <v>44532</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="30" t="s">
         <v>52</v>
       </c>
       <c r="E29" s="7" t="s">
@@ -1549,7 +1562,7 @@
         <v>13</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1565,7 +1578,7 @@
         <f t="shared" si="2"/>
         <v>44537</v>
       </c>
-      <c r="D30" s="29"/>
+      <c r="D30" s="30"/>
       <c r="E30" s="7" t="s">
         <v>37</v>
       </c>
@@ -1584,17 +1597,17 @@
         <f t="shared" si="2"/>
         <v>44539</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="30"/>
+      <c r="E31" s="29"/>
       <c r="F31" s="7"/>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
       <c r="B32" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" s="5">
         <v>44542</v>
@@ -1614,10 +1627,10 @@
       <c r="C33" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="30"/>
+      <c r="E33" s="29"/>
       <c r="F33" s="7"/>
       <c r="G33" s="9"/>
     </row>
@@ -1627,6 +1640,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D14:D16"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="D26:D28"/>
     <mergeCell ref="D33:E33"/>
@@ -1643,7 +1657,6 @@
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="D14:D16"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmac\Google Drive\courses\data-structures\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A11D84-3E2A-4530-B8C6-441BFC8F87A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF91518C-1830-4D52-BB55-68315F164CAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="108">
   <si>
     <t>Class number</t>
   </si>
@@ -374,6 +374,78 @@
       </rPr>
       <t>optional: 5.10</t>
     </r>
+  </si>
+  <si>
+    <t>subtopics</t>
+  </si>
+  <si>
+    <t>intro</t>
+  </si>
+  <si>
+    <t>Elementary examples of recursion</t>
+  </si>
+  <si>
+    <t>more sophisticated examples of recursion</t>
+  </si>
+  <si>
+    <t>Backtracking and its connection to recursion, via recursion trees</t>
+  </si>
+  <si>
+    <t>Overview of asymptotic running times, especially big-O.</t>
+  </si>
+  <si>
+    <t>Formal definition of big-O, big-omega, big-theta. Solving recurrence relations via expansion.</t>
+  </si>
+  <si>
+    <t>Review of algorithm analysis topic.</t>
+  </si>
+  <si>
+    <t>Review of how to use generics. Then the new idea for this course: how to create your own generic classes and methods.</t>
+  </si>
+  <si>
+    <t>Abstract data type (ADT);List ADT;Array-based list implementation;linked list implementation;running times for list operations (array versus linked);stack ADT;queue ADT</t>
+  </si>
+  <si>
+    <t>Iterators; amortized analysis: cost of adding to an ArrayList</t>
+  </si>
+  <si>
+    <t>Four types of traversals; binary tree ADT</t>
+  </si>
+  <si>
+    <t>full/complete binary trees; visitor pattern</t>
+  </si>
+  <si>
+    <t>binary search trees (BSTs)</t>
+  </si>
+  <si>
+    <t>heaps</t>
+  </si>
+  <si>
+    <t>balanced trees and other optional topics</t>
+  </si>
+  <si>
+    <t>insertion sort; merge sort</t>
+  </si>
+  <si>
+    <t>heap sort</t>
+  </si>
+  <si>
+    <t>hash tables</t>
+  </si>
+  <si>
+    <t>deletion in hash tables</t>
+  </si>
+  <si>
+    <t>Lambda expressions; the Java Stream API</t>
+  </si>
+  <si>
+    <t>Java Stream API practice and examples</t>
+  </si>
+  <si>
+    <t>graph implementations (adjacency matrix, adjacency list)</t>
+  </si>
+  <si>
+    <t>graph traversals (depth first, breadth first)</t>
   </si>
 </sst>
 </file>
@@ -492,7 +564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -532,9 +604,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -571,10 +640,22 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -919,27 +1000,26 @@
   </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="60" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="60" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="topRight" activeCell="D10" sqref="D10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="15"/>
+    <col min="1" max="1" width="9.140625" style="14"/>
     <col min="2" max="2" width="6.42578125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="11" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="26" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="11" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="18" customWidth="1"/>
     <col min="6" max="6" width="12" style="11" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="37.85546875" style="15" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="15"/>
+    <col min="8" max="8" width="51.7109375" style="30" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -961,9 +1041,12 @@
       <c r="G1" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="21">
+      <c r="H1" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -972,19 +1055,22 @@
       <c r="C2" s="5">
         <v>44439</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="22" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
+      <c r="H2" s="31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
       <c r="B3" s="4" t="s">
         <v>38</v>
       </c>
@@ -992,19 +1078,22 @@
         <f>C2+2</f>
         <v>44441</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="28" t="s">
         <v>43</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="8"/>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="24" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+      <c r="H3" s="31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
         <f>A2+1</f>
         <v>2</v>
       </c>
@@ -1016,7 +1105,7 @@
         <f>C2+7</f>
         <v>44446</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="7" t="s">
         <v>17</v>
       </c>
@@ -1026,9 +1115,12 @@
       <c r="G4" s="9" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
+      <c r="H4" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="str">
         <f>B3</f>
         <v>Thu</v>
@@ -1037,7 +1129,7 @@
         <f>C3+7</f>
         <v>44448</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="7" t="s">
         <v>18</v>
       </c>
@@ -1045,9 +1137,12 @@
       <c r="G5" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
+      <c r="H5" s="31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
         <f t="shared" ref="A6" si="0">A4+1</f>
         <v>3</v>
       </c>
@@ -1059,7 +1154,7 @@
         <f t="shared" ref="C6:C31" si="2">C4+7</f>
         <v>44453</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="28" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1071,9 +1166,12 @@
       <c r="G6" s="9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
+      <c r="H6" s="31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
       <c r="B7" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
@@ -1082,17 +1180,20 @@
         <f t="shared" si="2"/>
         <v>44455</v>
       </c>
-      <c r="D7" s="30"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="22" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
+      <c r="H7" s="31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
         <f t="shared" ref="A8" si="3">A6+1</f>
         <v>4</v>
       </c>
@@ -1104,17 +1205,20 @@
         <f t="shared" si="2"/>
         <v>44460</v>
       </c>
-      <c r="D8" s="30"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="22" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
+      <c r="H8" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
       <c r="B9" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
@@ -1123,7 +1227,7 @@
         <f t="shared" si="2"/>
         <v>44462</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="27" t="s">
         <v>45</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -1135,9 +1239,12 @@
       <c r="G9" s="9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
+      <c r="H9" s="32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="20">
         <f t="shared" ref="A10" si="4">A8+1</f>
         <v>5</v>
       </c>
@@ -1149,7 +1256,7 @@
         <f t="shared" si="2"/>
         <v>44467</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="28" t="s">
         <v>46</v>
       </c>
       <c r="E10" s="7" t="s">
@@ -1159,9 +1266,12 @@
       <c r="G10" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
+      <c r="H10" s="31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
       <c r="B11" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
@@ -1170,7 +1280,7 @@
         <f t="shared" si="2"/>
         <v>44469</v>
       </c>
-      <c r="D11" s="30"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="7" t="s">
         <v>24</v>
       </c>
@@ -1178,9 +1288,12 @@
       <c r="G11" s="9" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
+      <c r="H11" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
         <f t="shared" ref="A12" si="5">A10+1</f>
         <v>6</v>
       </c>
@@ -1196,13 +1309,14 @@
         <v>9</v>
       </c>
       <c r="E12" s="29"/>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="19" t="s">
         <v>78</v>
       </c>
       <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="H12" s="31"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
@@ -1217,9 +1331,10 @@
       <c r="E13" s="29"/>
       <c r="F13" s="7"/>
       <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
+      <c r="H13" s="31"/>
+    </row>
+    <row r="14" spans="1:8" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
         <f t="shared" ref="A14" si="6">A12+1</f>
         <v>7</v>
       </c>
@@ -1231,21 +1346,24 @@
         <f t="shared" si="2"/>
         <v>44481</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="28" t="s">
         <v>47</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="19" t="s">
         <v>77</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
+      <c r="H14" s="31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
       <c r="B15" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
@@ -1254,7 +1372,7 @@
         <f t="shared" si="2"/>
         <v>44483</v>
       </c>
-      <c r="D15" s="30"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="7" t="s">
         <v>26</v>
       </c>
@@ -1262,9 +1380,12 @@
       <c r="G15" s="9" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="21">
+      <c r="H15" s="31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="20">
         <f t="shared" ref="A16" si="7">A14+1</f>
         <v>8</v>
       </c>
@@ -1276,15 +1397,16 @@
         <f t="shared" si="2"/>
         <v>44488</v>
       </c>
-      <c r="D16" s="30"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="29" t="s">
         <v>41</v>
       </c>
       <c r="F16" s="29"/>
       <c r="G16" s="9"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
@@ -1293,21 +1415,24 @@
         <f t="shared" si="2"/>
         <v>44490</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="28" t="s">
         <v>48</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="19" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>69</v>
       </c>
+      <c r="H17" s="31" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="21">
+      <c r="A18" s="20">
         <f t="shared" ref="A18" si="8">A16+1</f>
         <v>9</v>
       </c>
@@ -1319,17 +1444,20 @@
         <f t="shared" si="2"/>
         <v>44495</v>
       </c>
-      <c r="D18" s="30"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="20"/>
+      <c r="F18" s="19"/>
       <c r="G18" s="9" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
+      <c r="H18" s="31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
       <c r="B19" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
@@ -1338,7 +1466,7 @@
         <f t="shared" si="2"/>
         <v>44497</v>
       </c>
-      <c r="D19" s="30"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="7" t="s">
         <v>29</v>
       </c>
@@ -1346,9 +1474,12 @@
       <c r="G19" s="9" t="s">
         <v>62</v>
       </c>
+      <c r="H19" s="31" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="21">
+      <c r="A20" s="20">
         <f t="shared" ref="A20" si="9">A18+1</f>
         <v>10</v>
       </c>
@@ -1360,7 +1491,7 @@
         <f t="shared" si="2"/>
         <v>44502</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="28" t="s">
         <v>49</v>
       </c>
       <c r="E20" s="7" t="s">
@@ -1372,9 +1503,12 @@
       <c r="G20" s="9" t="s">
         <v>71</v>
       </c>
+      <c r="H20" s="31" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
@@ -1383,17 +1517,20 @@
         <f t="shared" si="2"/>
         <v>44504</v>
       </c>
-      <c r="D21" s="30"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="18"/>
+      <c r="F21" s="17"/>
       <c r="G21" s="9" t="s">
         <v>72</v>
       </c>
+      <c r="H21" s="31" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A22" s="21">
+      <c r="A22" s="20">
         <f t="shared" ref="A22" si="10">A20+1</f>
         <v>11</v>
       </c>
@@ -1409,13 +1546,14 @@
         <v>9</v>
       </c>
       <c r="E22" s="29"/>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="19" t="s">
         <v>79</v>
       </c>
       <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
+      <c r="H22" s="31"/>
+    </row>
+    <row r="23" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
       <c r="B23" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
@@ -1430,9 +1568,10 @@
       <c r="E23" s="29"/>
       <c r="F23" s="8"/>
       <c r="G23" s="9"/>
+      <c r="H23" s="31"/>
     </row>
     <row r="24" spans="1:8" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="21">
+      <c r="A24" s="20">
         <f t="shared" ref="A24" si="11">A22+1</f>
         <v>12</v>
       </c>
@@ -1444,22 +1583,24 @@
         <f t="shared" si="2"/>
         <v>44516</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="28" t="s">
         <v>50</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="19" t="s">
         <v>80</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H24" s="14"/>
+      <c r="H24" s="33" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
@@ -1468,7 +1609,7 @@
         <f t="shared" si="2"/>
         <v>44518</v>
       </c>
-      <c r="D25" s="30"/>
+      <c r="D25" s="28"/>
       <c r="E25" s="7" t="s">
         <v>33</v>
       </c>
@@ -1476,9 +1617,12 @@
       <c r="G25" s="9" t="s">
         <v>74</v>
       </c>
+      <c r="H25" s="31" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="21">
+      <c r="A26" s="20">
         <f t="shared" ref="A26" si="12">A24+1</f>
         <v>13</v>
       </c>
@@ -1490,7 +1634,7 @@
         <f t="shared" si="2"/>
         <v>44523</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="28" t="s">
         <v>51</v>
       </c>
       <c r="E26" s="7" t="s">
@@ -1502,9 +1646,12 @@
       <c r="G26" s="9" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
+      <c r="H26" s="31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="20"/>
       <c r="B27" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
@@ -1513,15 +1660,16 @@
         <f t="shared" si="2"/>
         <v>44525</v>
       </c>
-      <c r="D27" s="30"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="29" t="s">
         <v>42</v>
       </c>
       <c r="F27" s="29"/>
       <c r="G27" s="9"/>
+      <c r="H27" s="31"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="21">
+      <c r="A28" s="20">
         <f t="shared" ref="A28" si="13">A26+1</f>
         <v>14</v>
       </c>
@@ -1533,17 +1681,20 @@
         <f t="shared" si="2"/>
         <v>44530</v>
       </c>
-      <c r="D28" s="30"/>
+      <c r="D28" s="28"/>
       <c r="E28" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="20"/>
+      <c r="F28" s="19"/>
       <c r="G28" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
+      <c r="H28" s="31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
       <c r="B29" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
@@ -1552,21 +1703,24 @@
         <f t="shared" si="2"/>
         <v>44532</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="28" t="s">
         <v>52</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="19" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>76</v>
       </c>
+      <c r="H29" s="31" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="21">
+      <c r="A30" s="20">
         <f t="shared" ref="A30" si="14">A28+1</f>
         <v>15</v>
       </c>
@@ -1578,17 +1732,20 @@
         <f t="shared" si="2"/>
         <v>44537</v>
       </c>
-      <c r="D30" s="30"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="20"/>
+      <c r="F30" s="19"/>
       <c r="G30" s="9" t="s">
         <v>62</v>
       </c>
+      <c r="H30" s="31" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
@@ -1603,28 +1760,30 @@
       <c r="E31" s="29"/>
       <c r="F31" s="7"/>
       <c r="G31" s="9"/>
+      <c r="H31" s="31"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C32" s="5">
         <v>44542</v>
       </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
       <c r="F32" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
+      <c r="H32" s="31"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="20"/>
       <c r="B33" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="29" t="s">
@@ -1633,13 +1792,15 @@
       <c r="E33" s="29"/>
       <c r="F33" s="7"/>
       <c r="G33" s="9"/>
-    </row>
-    <row r="34" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
+      <c r="H33" s="31"/>
+    </row>
+    <row r="34" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="D26:D28"/>
@@ -1656,7 +1817,6 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmac\Google Drive\courses\data-structures\schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmac\git\dickinson-comp232.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF91518C-1830-4D52-BB55-68315F164CAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A9308B-7AD9-4DB7-BB84-E68E18140EB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -639,23 +639,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1000,10 +1000,8 @@
   </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="60" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection activeCell="D1" sqref="D1"/>
-      <selection pane="topRight" activeCell="D10" sqref="D10:D11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,7 +1013,7 @@
     <col min="5" max="5" width="10.5703125" style="18" customWidth="1"/>
     <col min="6" max="6" width="12" style="11" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="51.7109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="51.7109375" style="28" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
@@ -1065,7 +1063,7 @@
       <c r="G2" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="29" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1078,7 +1076,7 @@
         <f>C2+2</f>
         <v>44441</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="33" t="s">
         <v>43</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -1088,7 +1086,7 @@
       <c r="G3" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="29" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1105,7 +1103,7 @@
         <f>C2+7</f>
         <v>44446</v>
       </c>
-      <c r="D4" s="28"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="7" t="s">
         <v>17</v>
       </c>
@@ -1115,7 +1113,7 @@
       <c r="G4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="29" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1129,7 +1127,7 @@
         <f>C3+7</f>
         <v>44448</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="7" t="s">
         <v>18</v>
       </c>
@@ -1137,7 +1135,7 @@
       <c r="G5" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="29" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1154,7 +1152,7 @@
         <f t="shared" ref="C6:C31" si="2">C4+7</f>
         <v>44453</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="33" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1166,7 +1164,7 @@
       <c r="G6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="29" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1180,7 +1178,7 @@
         <f t="shared" si="2"/>
         <v>44455</v>
       </c>
-      <c r="D7" s="28"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="7" t="s">
         <v>20</v>
       </c>
@@ -1188,7 +1186,7 @@
       <c r="G7" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="29" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1205,7 +1203,7 @@
         <f t="shared" si="2"/>
         <v>44460</v>
       </c>
-      <c r="D8" s="28"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="7" t="s">
         <v>21</v>
       </c>
@@ -1213,7 +1211,7 @@
       <c r="G8" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="29" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1239,7 +1237,7 @@
       <c r="G9" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="30" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1256,7 +1254,7 @@
         <f t="shared" si="2"/>
         <v>44467</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="33" t="s">
         <v>46</v>
       </c>
       <c r="E10" s="7" t="s">
@@ -1266,7 +1264,7 @@
       <c r="G10" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="29" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1280,7 +1278,7 @@
         <f t="shared" si="2"/>
         <v>44469</v>
       </c>
-      <c r="D11" s="28"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="7" t="s">
         <v>24</v>
       </c>
@@ -1288,7 +1286,7 @@
       <c r="G11" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="29" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1305,15 +1303,15 @@
         <f t="shared" si="2"/>
         <v>44474</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="29"/>
+      <c r="E12" s="32"/>
       <c r="F12" s="19" t="s">
         <v>78</v>
       </c>
       <c r="G12" s="9"/>
-      <c r="H12" s="31"/>
+      <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
@@ -1325,13 +1323,13 @@
         <f t="shared" si="2"/>
         <v>44476</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="29"/>
+      <c r="E13" s="32"/>
       <c r="F13" s="7"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="31"/>
+      <c r="H13" s="29"/>
     </row>
     <row r="14" spans="1:8" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
@@ -1346,7 +1344,7 @@
         <f t="shared" si="2"/>
         <v>44481</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="33" t="s">
         <v>47</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -1358,7 +1356,7 @@
       <c r="G14" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="29" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1372,7 +1370,7 @@
         <f t="shared" si="2"/>
         <v>44483</v>
       </c>
-      <c r="D15" s="28"/>
+      <c r="D15" s="33"/>
       <c r="E15" s="7" t="s">
         <v>26</v>
       </c>
@@ -1380,7 +1378,7 @@
       <c r="G15" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="H15" s="29" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1397,13 +1395,13 @@
         <f t="shared" si="2"/>
         <v>44488</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29" t="s">
+      <c r="D16" s="33"/>
+      <c r="E16" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="29"/>
+      <c r="F16" s="32"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="31"/>
+      <c r="H16" s="29"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
@@ -1415,7 +1413,7 @@
         <f t="shared" si="2"/>
         <v>44490</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="33" t="s">
         <v>48</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -1427,7 +1425,7 @@
       <c r="G17" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="31" t="s">
+      <c r="H17" s="29" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1444,7 +1442,7 @@
         <f t="shared" si="2"/>
         <v>44495</v>
       </c>
-      <c r="D18" s="28"/>
+      <c r="D18" s="33"/>
       <c r="E18" s="7" t="s">
         <v>28</v>
       </c>
@@ -1452,7 +1450,7 @@
       <c r="G18" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H18" s="31" t="s">
+      <c r="H18" s="29" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1466,7 +1464,7 @@
         <f t="shared" si="2"/>
         <v>44497</v>
       </c>
-      <c r="D19" s="28"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="7" t="s">
         <v>29</v>
       </c>
@@ -1474,7 +1472,7 @@
       <c r="G19" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="31" t="s">
+      <c r="H19" s="29" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1491,7 +1489,7 @@
         <f t="shared" si="2"/>
         <v>44502</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="33" t="s">
         <v>49</v>
       </c>
       <c r="E20" s="7" t="s">
@@ -1503,7 +1501,7 @@
       <c r="G20" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="31" t="s">
+      <c r="H20" s="29" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1517,7 +1515,7 @@
         <f t="shared" si="2"/>
         <v>44504</v>
       </c>
-      <c r="D21" s="28"/>
+      <c r="D21" s="33"/>
       <c r="E21" s="7" t="s">
         <v>31</v>
       </c>
@@ -1525,7 +1523,7 @@
       <c r="G21" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H21" s="31" t="s">
+      <c r="H21" s="29" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1542,15 +1540,15 @@
         <f t="shared" si="2"/>
         <v>44509</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="29"/>
+      <c r="E22" s="32"/>
       <c r="F22" s="19" t="s">
         <v>79</v>
       </c>
       <c r="G22" s="9"/>
-      <c r="H22" s="31"/>
+      <c r="H22" s="29"/>
     </row>
     <row r="23" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
@@ -1562,13 +1560,13 @@
         <f t="shared" si="2"/>
         <v>44511</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="29"/>
+      <c r="E23" s="32"/>
       <c r="F23" s="8"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="31"/>
+      <c r="H23" s="29"/>
     </row>
     <row r="24" spans="1:8" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
@@ -1583,7 +1581,7 @@
         <f t="shared" si="2"/>
         <v>44516</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="33" t="s">
         <v>50</v>
       </c>
       <c r="E24" s="7" t="s">
@@ -1595,7 +1593,7 @@
       <c r="G24" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H24" s="33" t="s">
+      <c r="H24" s="31" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1609,7 +1607,7 @@
         <f t="shared" si="2"/>
         <v>44518</v>
       </c>
-      <c r="D25" s="28"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="7" t="s">
         <v>33</v>
       </c>
@@ -1617,7 +1615,7 @@
       <c r="G25" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H25" s="31" t="s">
+      <c r="H25" s="29" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1634,7 +1632,7 @@
         <f t="shared" si="2"/>
         <v>44523</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="33" t="s">
         <v>51</v>
       </c>
       <c r="E26" s="7" t="s">
@@ -1646,7 +1644,7 @@
       <c r="G26" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="H26" s="31" t="s">
+      <c r="H26" s="29" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1660,13 +1658,13 @@
         <f t="shared" si="2"/>
         <v>44525</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="29" t="s">
+      <c r="D27" s="33"/>
+      <c r="E27" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="29"/>
+      <c r="F27" s="32"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="31"/>
+      <c r="H27" s="29"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
@@ -1681,7 +1679,7 @@
         <f t="shared" si="2"/>
         <v>44530</v>
       </c>
-      <c r="D28" s="28"/>
+      <c r="D28" s="33"/>
       <c r="E28" s="7" t="s">
         <v>35</v>
       </c>
@@ -1689,7 +1687,7 @@
       <c r="G28" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="31" t="s">
+      <c r="H28" s="29" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1703,7 +1701,7 @@
         <f t="shared" si="2"/>
         <v>44532</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="33" t="s">
         <v>52</v>
       </c>
       <c r="E29" s="7" t="s">
@@ -1715,7 +1713,7 @@
       <c r="G29" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H29" s="31" t="s">
+      <c r="H29" s="29" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1732,7 +1730,7 @@
         <f t="shared" si="2"/>
         <v>44537</v>
       </c>
-      <c r="D30" s="28"/>
+      <c r="D30" s="33"/>
       <c r="E30" s="7" t="s">
         <v>37</v>
       </c>
@@ -1740,7 +1738,7 @@
       <c r="G30" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H30" s="31" t="s">
+      <c r="H30" s="29" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1754,13 +1752,13 @@
         <f t="shared" si="2"/>
         <v>44539</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="29"/>
+      <c r="E31" s="32"/>
       <c r="F31" s="7"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="31"/>
+      <c r="H31" s="29"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="20"/>
@@ -1776,7 +1774,7 @@
         <v>14</v>
       </c>
       <c r="G32" s="9"/>
-      <c r="H32" s="31"/>
+      <c r="H32" s="29"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="20"/>
@@ -1786,13 +1784,13 @@
       <c r="C33" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="29"/>
+      <c r="E33" s="32"/>
       <c r="F33" s="7"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="31"/>
+      <c r="H33" s="29"/>
     </row>
     <row r="34" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F34" s="25"/>
@@ -1800,19 +1798,19 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="D26:D28"/>
     <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D20:D21"/>
     <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D31:E31"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmac\git\dickinson-comp232.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmac\Google Drive\courses\data-structures\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A9308B-7AD9-4DB7-BB84-E68E18140EB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB95F8A-15BF-43FE-AE69-64D411FB8345}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="108">
   <si>
     <t>Class number</t>
   </si>
@@ -427,9 +427,6 @@
     <t>insertion sort; merge sort</t>
   </si>
   <si>
-    <t>heap sort</t>
-  </si>
-  <si>
     <t>hash tables</t>
   </si>
   <si>
@@ -446,6 +443,9 @@
   </si>
   <si>
     <t>graph traversals (depth first, breadth first)</t>
+  </si>
+  <si>
+    <t>heap sort; stability of search algorithms</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,6 +528,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -564,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -656,6 +664,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1000,8 +1014,8 @@
   </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1524,7 +1538,7 @@
         <v>72</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="39" x14ac:dyDescent="0.25">
@@ -1594,7 +1608,7 @@
         <v>73</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1616,7 +1630,7 @@
         <v>74</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1645,7 +1659,7 @@
         <v>75</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -1688,7 +1702,7 @@
         <v>62</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1707,14 +1721,14 @@
       <c r="E29" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="34" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>76</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1734,12 +1748,14 @@
       <c r="E30" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="19"/>
+      <c r="F30" s="35" t="s">
+        <v>13</v>
+      </c>
       <c r="G30" s="9" t="s">
         <v>62</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmac\Google Drive\courses\data-structures\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB95F8A-15BF-43FE-AE69-64D411FB8345}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DFA924-9747-4549-A9A5-23F71A0C2A65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="225" yWindow="3000" windowWidth="6420" windowHeight="8400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="109">
   <si>
     <t>Class number</t>
   </si>
@@ -198,9 +198,6 @@
   </si>
   <si>
     <t>final exam (topics 1-10)</t>
-  </si>
-  <si>
-    <t>12/15, 2pm</t>
   </si>
   <si>
     <t>hw0</t>
@@ -446,6 +443,46 @@
   </si>
   <si>
     <t>heap sort; stability of search algorithms</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12/15, </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2pm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>due at 5pm</t>
+    </r>
+  </si>
+  <si>
+    <t>48-hour take-home exam begins Monday 12/13 at 5pm, ends Wed 12/15 at 5pm</t>
   </si>
 </sst>
 </file>
@@ -545,7 +582,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -568,11 +605,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -629,9 +703,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -659,17 +730,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1014,8 +1100,8 @@
   </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="E15" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,11 +1109,11 @@
     <col min="1" max="1" width="9.140625" style="14"/>
     <col min="2" max="2" width="6.42578125" style="12" customWidth="1"/>
     <col min="3" max="3" width="11" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="24" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" style="18" customWidth="1"/>
     <col min="6" max="6" width="12" style="11" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="51.7109375" style="28" customWidth="1"/>
+    <col min="8" max="8" width="51.7109375" style="27" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
@@ -1051,10 +1137,10 @@
         <v>3</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1067,22 +1153,22 @@
       <c r="C2" s="5">
         <v>44439</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>85</v>
+      <c r="G2" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="4" t="s">
         <v>38</v>
       </c>
@@ -1097,11 +1183,11 @@
         <v>16</v>
       </c>
       <c r="F3" s="8"/>
-      <c r="G3" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>86</v>
+      <c r="G3" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1122,13 +1208,13 @@
         <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>87</v>
+        <v>60</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1147,10 +1233,10 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>88</v>
+        <v>61</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1176,10 +1262,10 @@
         <v>7</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>89</v>
+        <v>62</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1197,11 +1283,11 @@
         <v>20</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>90</v>
+      <c r="G7" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1222,11 +1308,11 @@
         <v>21</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>91</v>
+      <c r="G8" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1239,7 +1325,7 @@
         <f t="shared" si="2"/>
         <v>44462</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>45</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -1249,10 +1335,10 @@
         <v>8</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>92</v>
+        <v>64</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -1276,10 +1362,10 @@
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>93</v>
+        <v>65</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1298,10 +1384,10 @@
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>94</v>
+        <v>66</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="39" x14ac:dyDescent="0.25">
@@ -1317,15 +1403,15 @@
         <f t="shared" si="2"/>
         <v>44474</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="32"/>
+      <c r="E12" s="34"/>
       <c r="F12" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G12" s="9"/>
-      <c r="H12" s="29"/>
+      <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
@@ -1337,13 +1423,13 @@
         <f t="shared" si="2"/>
         <v>44476</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="32"/>
+      <c r="E13" s="34"/>
       <c r="F13" s="7"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="29"/>
+      <c r="H13" s="28"/>
     </row>
     <row r="14" spans="1:8" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
@@ -1365,13 +1451,13 @@
         <v>25</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>95</v>
+        <v>67</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1390,10 +1476,10 @@
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="29" t="s">
-        <v>96</v>
+        <v>82</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1410,12 +1496,12 @@
         <v>44488</v>
       </c>
       <c r="D16" s="33"/>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="32"/>
+      <c r="F16" s="34"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="29"/>
+      <c r="H16" s="28"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
@@ -1437,10 +1523,10 @@
         <v>10</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>97</v>
+        <v>68</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1462,10 +1548,10 @@
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" s="29" t="s">
-        <v>98</v>
+        <v>69</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -1484,10 +1570,10 @@
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="29" t="s">
-        <v>99</v>
+        <v>61</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1513,10 +1599,10 @@
         <v>11</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" s="29" t="s">
-        <v>100</v>
+        <v>70</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1535,10 +1621,10 @@
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H21" s="29" t="s">
-        <v>107</v>
+        <v>71</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="39" x14ac:dyDescent="0.25">
@@ -1554,15 +1640,15 @@
         <f t="shared" si="2"/>
         <v>44509</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="32"/>
+      <c r="E22" s="34"/>
       <c r="F22" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G22" s="9"/>
-      <c r="H22" s="29"/>
+      <c r="H22" s="28"/>
     </row>
     <row r="23" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
@@ -1574,13 +1660,13 @@
         <f t="shared" si="2"/>
         <v>44511</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="32"/>
+      <c r="E23" s="34"/>
       <c r="F23" s="8"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="29"/>
+      <c r="H23" s="28"/>
     </row>
     <row r="24" spans="1:8" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
@@ -1602,13 +1688,13 @@
         <v>32</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H24" s="31" t="s">
-        <v>101</v>
+        <v>72</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1627,10 +1713,10 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H25" s="29" t="s">
-        <v>102</v>
+        <v>73</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1656,10 +1742,10 @@
         <v>12</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H26" s="29" t="s">
-        <v>103</v>
+        <v>74</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -1673,12 +1759,12 @@
         <v>44525</v>
       </c>
       <c r="D27" s="33"/>
-      <c r="E27" s="32" t="s">
+      <c r="E27" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="32"/>
+      <c r="F27" s="34"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="29"/>
+      <c r="H27" s="28"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
@@ -1699,10 +1785,10 @@
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>104</v>
+        <v>61</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1721,14 +1807,14 @@
       <c r="E29" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="34" t="s">
+      <c r="F29" s="31" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H29" s="29" t="s">
-        <v>105</v>
+        <v>75</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1748,14 +1834,14 @@
       <c r="E30" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="35" t="s">
+      <c r="F30" s="32" t="s">
         <v>13</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H30" s="29" t="s">
-        <v>106</v>
+        <v>61</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1768,52 +1854,63 @@
         <f t="shared" si="2"/>
         <v>44539</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="32"/>
+      <c r="E31" s="34"/>
       <c r="F31" s="7"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="29"/>
+      <c r="H31" s="28"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="20"/>
       <c r="B32" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" s="5">
         <v>44542</v>
       </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
       <c r="F32" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G32" s="9"/>
-      <c r="H32" s="29"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H32" s="28"/>
+    </row>
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="20"/>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="32" t="s">
+      <c r="C33" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="32"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="29"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="G33" s="37"/>
+      <c r="H33" s="38"/>
     </row>
     <row r="34" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="F33:H33"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="D10:D11"/>
@@ -1823,14 +1920,6 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D29:D30"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
